--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
   <si>
     <t>POST</t>
   </si>
@@ -136,9 +136,6 @@
     <t>api/auth/refresh</t>
   </si>
   <si>
-    <t>refreshToken</t>
-  </si>
-  <si>
     <t>Просмотр баланса и всех транзакции</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>Authorization: Bearer {token}</t>
-  </si>
-  <si>
-    <t>не сделано</t>
   </si>
   <si>
     <t>{
@@ -539,12 +533,27 @@
   "parentCategoryId": null
 }</t>
   </si>
+  <si>
+    <t>Проверка существования пользователя</t>
+  </si>
+  <si>
+    <t>/api/users/exists</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>{"exists": true}</t>
+  </si>
+  <si>
+    <t>{"exists": false</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,19 +594,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -651,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -690,18 +686,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -996,11 +980,13 @@
     <col min="3" max="3" width="40.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
     <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="40.6640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1011,7 +997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1022,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1044,7 +1030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1055,7 +1041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1066,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1074,153 +1060,171 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="C10" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>59</v>
+    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C22" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1303,10 +1307,10 @@
     </row>
     <row r="9" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,15 +1352,15 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1369,46 +1373,46 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,20 +1430,20 @@
     </row>
     <row r="8" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
@@ -1452,15 +1456,15 @@
     </row>
     <row r="10" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1478,15 +1482,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1495,37 +1499,37 @@
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1535,12 +1539,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1565,15 +1569,15 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1586,46 +1590,46 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1643,20 +1647,20 @@
     </row>
     <row r="8" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
@@ -1669,15 +1673,15 @@
     </row>
     <row r="10" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1695,15 +1699,15 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1712,37 +1716,37 @@
       <c r="C13" s="16"/>
       <c r="D13" s="10"/>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1752,12 +1756,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1787,13 +1791,13 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1804,40 +1808,40 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,18 +1857,18 @@
     </row>
     <row r="8" spans="1:5" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -1876,10 +1880,10 @@
     <row r="10" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1895,48 +1899,48 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1946,12 +1950,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1979,10 +1983,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,47 +1999,47 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="138" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>7</v>
@@ -2043,10 +2047,10 @@
     </row>
     <row r="10" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,45 +2063,45 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2107,12 +2111,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2152,10 +2156,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,23 +2175,23 @@
         <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2200,10 +2204,10 @@
     </row>
     <row r="8" spans="1:3" ht="382.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2216,18 +2220,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,26 +2244,26 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2272,10 +2276,10 @@
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,10 +2292,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="114">
   <si>
     <t>POST</t>
   </si>
@@ -285,12 +285,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>{ "message": "Invalid email or password"}</t>
-  </si>
-  <si>
-    <t>{"message": "Email not found"}</t>
-  </si>
-  <si>
     <t>{"message": "Email is already in use"}</t>
   </si>
   <si>
@@ -298,12 +292,6 @@
   </si>
   <si>
     <t>{"message": "Password updated successfully."}</t>
-  </si>
-  <si>
-    <t>{"message": "Invalid or expired reset token"}</t>
-  </si>
-  <si>
-    <t>{"message": "Invalid or expired token"}</t>
   </si>
   <si>
     <t>{
@@ -513,9 +501,6 @@
     <t>{"message": "Password reset email sent."}</t>
   </si>
   <si>
-    <t>{ "message": "Account is not activated"}</t>
-  </si>
-  <si>
     <t>{"refreshToken": "jwtRefreshToken"</t>
   </si>
   <si>
@@ -546,14 +531,38 @@
     <t>{"exists": true}</t>
   </si>
   <si>
-    <t>{"exists": false</t>
+    <t>{ "message": "Bad credentials"}</t>
+  </si>
+  <si>
+    <t>{"message": "User with this email does not exist"}</t>
+  </si>
+  <si>
+    <t>{"message": "Invalid password reset token."}</t>
+  </si>
+  <si>
+    <t>{"message": "New password must be at least 6 characters long"}</t>
+  </si>
+  <si>
+    <t>Ответ: 403 Forbidden</t>
+  </si>
+  <si>
+    <t>{"message": "Account is not activated"}</t>
+  </si>
+  <si>
+    <t>{"message": "Invalid refresh token"}</t>
+  </si>
+  <si>
+    <t>{"message": "Invalid confirmation token"}</t>
+  </si>
+  <si>
+    <t>{"exists": false}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,6 +603,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -647,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -664,8 +680,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,6 +701,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -967,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1060,171 +1080,184 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="15"/>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C24" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="2" t="s">
+    <row r="25" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C22" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1238,94 +1271,104 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="44.77734375" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="44.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="44.77734375" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
+      <c r="A9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1352,66 +1395,66 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1419,63 +1462,63 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1484,27 +1527,27 @@
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1513,8 +1556,8 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>72</v>
+      <c r="A17" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1523,13 +1566,13 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1569,66 +1612,66 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
-        <v>94</v>
+      <c r="A4" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1636,63 +1679,63 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="10"/>
+        <v>91</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1701,27 +1744,27 @@
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="10"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1730,8 +1773,8 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>94</v>
+      <c r="A17" s="9" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
@@ -1740,13 +1783,13 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
@@ -1779,25 +1822,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="35.77734375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
-    <col min="5" max="5" width="35.77734375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="10"/>
-    <col min="7" max="7" width="35.77734375" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="35.77734375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="35.77734375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="35.77734375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="35.77734375" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1808,18 +1851,18 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>86</v>
+      <c r="A4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,13 +1877,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1857,13 +1900,13 @@
     </row>
     <row r="8" spans="1:5" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1880,10 +1923,10 @@
     <row r="10" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1915,7 +1958,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,8 +1967,8 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
-        <v>86</v>
+      <c r="A17" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -1934,13 +1977,13 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -1973,12 +2016,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="37.88671875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="10"/>
-    <col min="5" max="5" width="37.88671875" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="37.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="37.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="8"/>
+    <col min="5" max="5" width="37.88671875" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,10 +2041,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2014,10 +2057,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2030,10 +2073,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2085,7 +2128,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2095,13 +2138,13 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2120,17 +2163,17 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="A38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="C52" s="11"/>
+      <c r="E52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2148,10 +2191,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="10"/>
-    <col min="3" max="3" width="37.88671875" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="37.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="8"/>
+    <col min="3" max="3" width="37.88671875" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2187,10 +2230,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2228,10 +2271,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2244,10 +2287,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2259,10 +2302,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2276,10 +2319,10 @@
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
   <si>
     <t>POST</t>
   </si>
@@ -572,6 +572,24 @@
     "id": 1,
     "name": Account Name"
 }</t>
+  </si>
+  <si>
+    <t>Получение категорию</t>
+  </si>
+  <si>
+    <t>{
+    "categoryId": 1,
+    "name": "Food",
+    "parentId": null,
+    "subCategories": [
+      {
+        "categoryId": 2,
+        "name": "Fruits",
+        "parentId": 1,
+        "subCategories": []
+      }
+    ]
+  }</t>
   </si>
 </sst>
 </file>
@@ -1401,7 +1419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1642,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1879,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1897,40 +1915,49 @@
     <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1940,8 +1967,11 @@
       <c r="E5" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>33</v>
       </c>
@@ -1951,50 +1981,63 @@
       <c r="E6" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="198" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4"/>
+      <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2004,8 +2047,11 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>35</v>
       </c>
@@ -2015,18 +2061,21 @@
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>50</v>
       </c>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
   <si>
     <t>POST</t>
   </si>
@@ -503,12 +503,6 @@
   </si>
   <si>
     <t>{
-  "name": "Category Name",
-  "parentCategoryId": null
-}</t>
-  </si>
-  <si>
-    <t>{
   "name": "New Category Name",
   "parentCategoryId": null
 }</t>
@@ -590,6 +584,18 @@
       }
     ]
   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">создать email </t>
+  </si>
+  <si>
+    <t>надо добаить в webConfig юрл (больше нигде ничего менять не надо)</t>
+  </si>
+  <si>
+    <t>{
+  "name": "Category Name",
+  "parentCategoryId": 1
+}</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1033,7 +1039,7 @@
     <col min="2" max="2" width="8.88671875" style="3"/>
     <col min="3" max="3" width="40.77734375" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="3"/>
-    <col min="5" max="5" width="40.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="3"/>
     <col min="7" max="7" width="40.6640625" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="3"/>
@@ -1116,7 +1122,6 @@
       <c r="E8" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -1135,22 +1140,22 @@
         <v>51</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1167,7 +1172,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1195,7 +1200,7 @@
         <v>30</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1223,7 +1228,7 @@
         <v>96</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1251,7 +1256,7 @@
         <v>97</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1270,16 +1275,16 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1289,12 +1294,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1305,21 +1310,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="45.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="44.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="45.77734375" style="8" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
@@ -1327,8 +1332,14 @@
       <c r="C2" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
@@ -1336,8 +1347,14 @@
       <c r="C3" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1372,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>4</v>
       </c>
@@ -1364,7 +1381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1382,7 +1399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>54</v>
       </c>
@@ -1391,7 +1408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -1400,12 +1417,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="17"/>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1420,15 +1437,15 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1437,7 +1454,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
@@ -1470,7 +1487,7 @@
         <v>62</v>
       </c>
       <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="8"/>
@@ -1539,7 +1556,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
@@ -1569,11 +1586,11 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
@@ -1599,11 +1616,11 @@
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1611,7 +1628,6 @@
         <v>70</v>
       </c>
       <c r="B13" s="8"/>
-      <c r="C13" s="14"/>
       <c r="D13" s="8"/>
       <c r="E13" s="14"/>
       <c r="F13" s="8"/>
@@ -1648,7 +1664,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1658,18 +1674,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G19"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="7" max="7" width="40.77734375" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1678,7 +1694,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
@@ -1780,7 +1796,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
@@ -1810,11 +1826,11 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
@@ -1837,22 +1853,19 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>87</v>
-      </c>
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
@@ -1861,33 +1874,38 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>113</v>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1897,21 +1915,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="32.77734375" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="35.77734375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="8"/>
-    <col min="5" max="5" width="35.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="32.77734375" style="8" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="8"/>
-    <col min="7" max="7" width="35.77734375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" style="8" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
@@ -1920,7 +1938,7 @@
         <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>78</v>
@@ -2004,13 +2022,13 @@
         <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,8 +2046,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>79</v>
       </c>
@@ -2038,85 +2060,64 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>35</v>
+      <c r="E12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="4" t="s">
-        <v>48</v>
+      <c r="A13" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>83</v>
+      <c r="A15" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>33</v>
+      <c r="A19" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>48</v>
+      <c r="A20" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2125,7 +2126,7 @@
   <dimension ref="A2:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2299,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="balance" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="127">
   <si>
     <t>POST</t>
   </si>
@@ -62,11 +63,6 @@
   </si>
   <si>
     <t>/api/auth/confirm</t>
-  </si>
-  <si>
-    <t>{
-    "message": "Registration successful. Check your email to confirm your account."
-}</t>
   </si>
   <si>
     <t>POST /api/auth/login</t>
@@ -217,63 +213,13 @@
     <t xml:space="preserve">Тело </t>
   </si>
   <si>
-    <t>{
-    "type": "EXPENSE",
-    "amount": 100.50,
-    "datetime": "2025-02-14T18:30:00",
-    "tags": "food",
-    "place": "restaurant",
-    "note": "Dinner with friends",
-    "categoryId": 3,
-    "accountId": 1
-}</t>
-  </si>
-  <si>
     <t>Ответ: Статус 201 Created</t>
   </si>
   <si>
-    <t>{
-    "id": 3,
-    "type": "EXPENSE",
-    "amount": 100.50,
-    "datetime": "2025-02-14T18:30:00",
-    "tags": "food",
-    "place": "restaurant",
-    "note": "Dinner with friends",
-    "category": "Food",
-    "account": "Main Account"
-}</t>
-  </si>
-  <si>
     <t>Обновление транзакции</t>
   </si>
   <si>
     <t>/api/transactions/{transactionId}</t>
-  </si>
-  <si>
-    <t>{
-    "type": "INCOME",
-    "amount": 500.00,
-    "datetime": "2025-02-15T10:00:00",
-    "tags": "freelance",
-    "place": "home office",
-    "note": "Payment for project",
-    "categoryId": 2,
-    "accountId": 1
-}</t>
-  </si>
-  <si>
-    <t>{
-    "id": 1,
-    "type": "INCOME",
-    "amount": 500.00,
-    "datetime": "2025-02-15T10:00:00",
-    "tags": "freelance",
-    "place": "home office",
-    "note": "Payment for project",
-    "category": "Freelance",
-    "account": "Main Account"
-}</t>
   </si>
   <si>
     <t>Ответ: 404 Not Found</t>
@@ -357,20 +303,10 @@
 }</t>
   </si>
   <si>
-    <t>{
-  "name": "New Account"
-}</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
     <t>/api/accounts/{id}</t>
-  </si>
-  <si>
-    <t>{
-  "name": "Updated Account"
-}</t>
   </si>
   <si>
     <t>{
@@ -472,16 +408,6 @@
   </si>
   <si>
     <t>{
-  "name": "New Tag"
-}</t>
-  </si>
-  <si>
-    <t>{
-  "name": "Updated Tag"
-}</t>
-  </si>
-  <si>
-    <t>{
   "id": 2,
   "name": "New Tag"
 }</t>
@@ -596,6 +522,99 @@
   "name": "Category Name",
   "parentCategoryId": 1
 }</t>
+  </si>
+  <si>
+    <t>{ "message": "Registration successful. Check your email to confirm your account."}</t>
+  </si>
+  <si>
+    <t>{ "name": "New Account"}</t>
+  </si>
+  <si>
+    <t>{"name": "Updated Account"}</t>
+  </si>
+  <si>
+    <t>{"name": "New Tag"}</t>
+  </si>
+  <si>
+    <t>{"name": "Updated Tag"}</t>
+  </si>
+  <si>
+    <t>{
+    "categoryId": 11,
+    "accountId": 1, 
+    "tagId": 6,
+    "amount": 100.50,
+    "datetime": "2024-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "EXPENSE"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "categoryId": 11,
+    "accountId": 1, 
+    "tagId": 6,
+    "amount": 100.50,
+    "datetime": "2024-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "INCOME"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 9,
+    "categoryId": 11,
+    "accountId": 1,
+    "tagId": 6,
+    "userId": null,
+    "amount": 100.50,
+    "datetime": "2024-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "EXPENSE"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 9,
+    "categoryId": 11,
+    "accountId": 1,
+    "tagId": 6,
+    "userId": null,
+    "amount": 100.50,
+    "datetime": "2024-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "INCOME"
+}</t>
+  </si>
+  <si>
+    <t>Получение списка всех транзакции</t>
+  </si>
+  <si>
+    <t>Ответ: Статус 200</t>
+  </si>
+  <si>
+    <t>[ {
+  "id" : 7,
+  "categoryId" : 11,
+  "accountId" : 1,
+  "tagId" : 6,
+  "userId" : null,
+  "amount" : 1000.50,
+  "datetime" : "2024-03-28T14:30:00",
+  "place" : "Some Store",
+  "note" : "Purchase details",
+  "type" : "EXPENSE"
+} ]</t>
+  </si>
+  <si>
+    <t>Получаение транзакции</t>
+  </si>
+  <si>
+    <t>Ответ: 204 No Content</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1049,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1073,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1073,21 +1092,21 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
@@ -1095,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1114,13 +1133,13 @@
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1137,25 +1156,25 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1166,13 +1185,13 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1211,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>3</v>
@@ -1219,16 +1238,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1236,7 +1255,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>7</v>
@@ -1247,16 +1266,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1275,16 +1294,16 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,12 +1313,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1332,7 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1326,17 +1345,17 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1351,25 +1370,25 @@
         <v>2</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,11 +1402,11 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,11 +1420,11 @@
     </row>
     <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,11 +1438,11 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1456,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,19 +1469,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1479,58 +1498,58 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1543,37 +1562,37 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -1586,46 +1605,46 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B13" s="8"/>
       <c r="D13" s="8"/>
@@ -1634,37 +1653,37 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1696,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1690,19 +1709,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1719,58 +1738,58 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,37 +1802,37 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -1826,46 +1845,46 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
@@ -1875,37 +1894,37 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1937,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1935,16 +1954,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1958,49 +1977,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,32 +2030,32 @@
         <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -2047,72 +2066,72 @@
     </row>
     <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2123,10 +2142,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E52"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2136,130 +2155,193 @@
     <col min="3" max="3" width="37.88671875" style="8" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="8"/>
     <col min="5" max="5" width="37.88671875" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="8"/>
+    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="7" max="7" width="37.88671875" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="C6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="138" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="E10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -2269,26 +2351,29 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="C38" s="14"/>
       <c r="E38" s="14"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="11"/>
       <c r="E39" s="11"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C52" s="11"/>
       <c r="E52" s="11"/>
+      <c r="G52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,7 +2385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2314,10 +2399,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2330,26 +2415,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2362,10 +2447,10 @@
     </row>
     <row r="8" spans="1:3" ht="382.8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,18 +2463,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2402,26 +2487,26 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2434,10 +2519,10 @@
     </row>
     <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2450,10 +2535,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="balance" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
   <si>
     <t>POST</t>
   </si>
@@ -123,9 +122,6 @@
     <t>Авторизация через Google</t>
   </si>
   <si>
-    <t>/api/balance/dashboard</t>
-  </si>
-  <si>
     <t>Получение нового токена</t>
   </si>
   <si>
@@ -141,70 +137,10 @@
     <t>Authorization: Bearer {token}</t>
   </si>
   <si>
-    <t>{
-    "balance": 5000.00,
-    "income": 7500.00,
-    "expenses": 2500.00,
-    "transactions": [
-        {
-            "id": 1,
-            "type": "INCOME",
-            "amount": 2500.00,
-            "datetime": "2025-02-13T12:00:00",
-            "tags": "salary",
-            "place": "office",
-            "note": "February salary",
-            "category": "Salary",
-            "account": "Main Account"
-        },
-        {
-            "id": 2,
-            "type": "EXPENSE",
-            "amount": 500.00,
-            "datetime": "2025-02-14T18:30:00",
-            "tags": "food",
-            "place": "restaurant",
-            "note": "Dinner with friends",
-            "category": "Food",
-            "account": "Main Account"
-        }
-    ]
-}</t>
-  </si>
-  <si>
     <t>Ответ: 401 Unauthorized</t>
   </si>
   <si>
-    <t>Получение списка транзакций</t>
-  </si>
-  <si>
     <t>Зоголовок</t>
-  </si>
-  <si>
-    <t>[
-    {
-        "id": 1,
-        "type": "INCOME",
-        "amount": 2500.00,
-        "datetime": "2025-02-13T12:00:00",
-        "tags": "salary",
-        "place": "office",
-        "note": "February salary",
-        "category": "Salary",
-        "account": "Main Account"
-    },
-    {
-        "id": 2,
-        "type": "EXPENSE",
-        "amount": 500.00,
-        "datetime": "2025-02-14T18:30:00",
-        "tags": "food",
-        "place": "restaurant",
-        "note": "Dinner with friends",
-        "category": "Food",
-        "account": "Main Account"
-    }
-]</t>
   </si>
   <si>
     <t>Создание новой транзакции</t>
@@ -250,25 +186,6 @@
   </si>
   <si>
     <t>{ "newPassword": "newUserPassword"}</t>
-  </si>
-  <si>
-    <t>Получение общей суммы доходов</t>
-  </si>
-  <si>
-    <t>/api/transactions/income</t>
-  </si>
-  <si>
-    <t>/api/transactions/expenses</t>
-  </si>
-  <si>
-    <t>{
-    "totalExpenses": 2500.50
-}</t>
-  </si>
-  <si>
-    <t>{
-    "totalIncome": 7500.75
-}</t>
   </si>
   <si>
     <r>
@@ -325,9 +242,6 @@
   </si>
   <si>
     <t>Получение списка счетов</t>
-  </si>
-  <si>
-    <t>Получение общей суммы расходов</t>
   </si>
   <si>
     <t>Получение списка категорий</t>
@@ -547,18 +461,6 @@
     "datetime": "2024-03-28T14:30:00",
     "place": "Some Store",
     "note": "Purchase details",
-    "type": "EXPENSE"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "categoryId": 11,
-    "accountId": 1, 
-    "tagId": 6,
-    "amount": 100.50,
-    "datetime": "2024-03-28T14:30:00",
-    "place": "Some Store",
-    "note": "Purchase details",
     "type": "INCOME"
 }</t>
   </si>
@@ -615,6 +517,70 @@
   </si>
   <si>
     <t>Ответ: 204 No Content</t>
+  </si>
+  <si>
+    <t>/api/balance/period?startDate=2024-03-01&amp;endDate=2024-03-31</t>
+  </si>
+  <si>
+    <t>/api/balance</t>
+  </si>
+  <si>
+    <t>Просмотр баланса и всех транзакции за определенный период</t>
+  </si>
+  <si>
+    <t>{
+  "income" : 502.50,
+  "expenses" : 100.50,
+  "balance" : 402.00,
+  "transactions" : [ {
+    "id" : 9,
+    "amount" : 100.50,
+    "type" : "INCOME",
+    "accountName" : "Cash",
+    "categoryName" : "сфыр",
+    "tagName" : "New Tag"
+  }, {
+    "id" : 10,
+    "amount" : 100.50,
+    "type" : "INCOME",
+    "accountName" : "Cash",
+    "categoryName" : "сфыр",
+    "tagName" : "New Tag"
+  }, 
+  {
+    "id" : 11,
+    "amount" : 100.50,
+    "type" : "INCOME",
+    "accountName" : "Cash",
+    "categoryName" : "сфыр",
+    "tagName" : "New Tag"
+  } ]
+}</t>
+  </si>
+  <si>
+    <t>{
+    "income": 301.50,
+    "expenses": 100.50,
+    "balance": 201.00,
+    "transactions": [
+        {
+            "id": 9,
+            "amount": 100.50,
+            "type": "INCOME",
+            "accountName": "Cash",
+            "categoryName": "сфыр",
+            "tagName": "New Tag"
+        },
+        {
+            "id": 10,
+            "amount": 100.50,
+            "type": "INCOME",
+            "accountName": "Cash",
+            "categoryName": "сфыр",
+            "tagName": "New Tag"
+        }
+    ]
+}</t>
   </si>
 </sst>
 </file>
@@ -1133,13 +1099,13 @@
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1156,25 +1122,25 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1188,10 +1154,10 @@
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1216,10 +1182,10 @@
         <v>20</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1244,10 +1210,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1266,16 +1232,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,16 +1260,16 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1313,12 +1279,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1370,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1420,11 +1386,11 @@
     </row>
     <row r="9" spans="1:6" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1455,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1469,19 +1435,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1498,58 +1464,58 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1571,28 +1537,28 @@
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -1605,46 +1571,46 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B13" s="8"/>
       <c r="D13" s="8"/>
@@ -1653,37 +1619,37 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1709,19 +1675,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1738,58 +1704,58 @@
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1811,28 +1777,28 @@
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
@@ -1845,46 +1811,46 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
@@ -1894,37 +1860,37 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1936,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1954,16 +1920,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1977,49 +1943,49 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2038,24 +2004,24 @@
     </row>
     <row r="8" spans="1:7" ht="198" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>7</v>
@@ -2066,72 +2032,72 @@
     </row>
     <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2144,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2162,16 +2128,16 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,77 +2151,77 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,10 +2229,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>7</v>
@@ -2274,19 +2240,24 @@
     </row>
     <row r="10" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="10" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
-        <v>8</v>
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -2297,66 +2268,69 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>43</v>
+      <c r="E13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>45</v>
+      <c r="A16" s="9" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>42</v>
+      <c r="A17" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
+      <c r="A18" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>32</v>
+      <c r="A19" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2383,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C21"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2399,10 +2373,10 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2415,26 +2389,26 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2445,12 +2419,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="382.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="369.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2463,82 +2437,18 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>34</v>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2110,8 +2110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2359,15 +2359,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.88671875" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="8"/>
-    <col min="3" max="3" width="37.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="55.77734375" style="8" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -1014,8 +1014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2359,7 +2359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -454,18 +454,6 @@
   </si>
   <si>
     <t>{
-    "categoryId": 11,
-    "accountId": 1, 
-    "tagId": 6,
-    "amount": 100.50,
-    "datetime": "2024-03-28T14:30:00",
-    "place": "Some Store",
-    "note": "Purchase details",
-    "type": "INCOME"
-}</t>
-  </si>
-  <si>
-    <t>{
     "id": 9,
     "categoryId": 11,
     "accountId": 1,
@@ -499,20 +487,6 @@
     <t>Ответ: Статус 200</t>
   </si>
   <si>
-    <t>[ {
-  "id" : 7,
-  "categoryId" : 11,
-  "accountId" : 1,
-  "tagId" : 6,
-  "userId" : null,
-  "amount" : 1000.50,
-  "datetime" : "2024-03-28T14:30:00",
-  "place" : "Some Store",
-  "note" : "Purchase details",
-  "type" : "EXPENSE"
-} ]</t>
-  </si>
-  <si>
     <t>Получаение транзакции</t>
   </si>
   <si>
@@ -529,58 +503,95 @@
   </si>
   <si>
     <t>{
-  "income" : 502.50,
-  "expenses" : 100.50,
-  "balance" : 402.00,
-  "transactions" : [ {
-    "id" : 9,
-    "amount" : 100.50,
-    "type" : "INCOME",
-    "accountName" : "Cash",
-    "categoryName" : "сфыр",
-    "tagName" : "New Tag"
-  }, {
-    "id" : 10,
-    "amount" : 100.50,
-    "type" : "INCOME",
-    "accountName" : "Cash",
-    "categoryName" : "сфыр",
-    "tagName" : "New Tag"
-  }, 
-  {
-    "id" : 11,
-    "amount" : 100.50,
-    "type" : "INCOME",
-    "accountName" : "Cash",
-    "categoryName" : "сфыр",
-    "tagName" : "New Tag"
-  } ]
+      "account": {
+    "id": 1
+  },
+  "category": {
+    "id": 13
+  },
+  "tag": {
+    "id": 6
+  },
+    "amount": 854.50,
+    "datetime": "2024-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "EXPENSE"
 }</t>
   </si>
   <si>
     <t>{
     "income": 301.50,
-    "expenses": 100.50,
-    "balance": 201.00,
+    "expenses": 1809.50,
+    "balance": -1508.00,
     "transactions": [
         {
-            "id": 9,
+            "id": 7,
+            "category": {
+                "id": 11,
+                "name": "Category"
+            },
+            "account": {
+                "id": 1,
+                "name": "Cash"
+            },
+            "tag": {
+                "id": 6,
+                "name": "New Tag"
+            },
+            "userId": null,
             "amount": 100.50,
-            "type": "INCOME",
-            "accountName": "Cash",
-            "categoryName": "сфыр",
-            "tagName": "New Tag"
+            "datetime": "2023-03-28T14:30:00",
+            "place": "Some Store",
+            "note": "Purchase details",
+            "type": "INCOME"
+}]}</t>
+  </si>
+  <si>
+    <t>{
+    "id": 7,
+    "category": {
+        "id": 11,
+        "name": "Category"
+    },
+    "account": {
+        "id": 1,
+        "name": "Cash"
+    },
+    "tag": {
+        "id": 6,
+        "name": "New Tag"
+    },
+    "userId": null,
+    "amount": 100.50,
+    "datetime": "2023-03-28T14:30:00",
+    "place": "Some Store",
+    "note": "Purchase details",
+    "type": "INCOME"
+}</t>
+  </si>
+  <si>
+    <t>[ {
+        "id": 9,
+        "category": {
+            "id": 11,
+            "name": "Category"
         },
-        {
-            "id": 10,
-            "amount": 100.50,
-            "type": "INCOME",
-            "accountName": "Cash",
-            "categoryName": "сфыр",
-            "tagName": "New Tag"
-        }
-    ]
-}</t>
+        "account": {
+            "id": 1,
+            "name": "Cash"
+        },
+        "tag": {
+            "id": 6,
+            "name": "New Tag"
+        },
+        "userId": null,
+        "amount": 100.50,
+        "datetime": "2024-03-28T14:30:00",
+        "place": "Some Store",
+        "note": "Purchase details",
+        "type": "INCOME"
+}]</t>
   </si>
 </sst>
 </file>
@@ -1014,7 +1025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -2128,10 +2139,10 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -2198,7 +2209,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -2210,18 +2221,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="165.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2246,10 +2257,10 @@
         <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>109</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2315,7 +2326,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2359,8 +2370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2387,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,10 +2400,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2419,12 +2430,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="369.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>119</v>
+    <row r="8" spans="1:3" ht="343.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="122">
   <si>
     <t>POST</t>
   </si>
@@ -250,23 +250,6 @@
     <t>/api/categories</t>
   </si>
   <si>
-    <t>[
-  {
-    "categoryId": 1,
-    "name": "Food",
-    "parentId": null,
-    "subCategories": [
-      {
-        "categoryId": 2,
-        "name": "Fruits",
-        "parentId": 1,
-        "subCategories": []
-      }
-    ]
-  }
-]</t>
-  </si>
-  <si>
     <t>Создание категории</t>
   </si>
   <si>
@@ -342,12 +325,6 @@
     <t>{ "accessToken": "jwtAccessToken"}</t>
   </si>
   <si>
-    <t>{
-  "name": "New Category Name",
-  "parentCategoryId": null
-}</t>
-  </si>
-  <si>
     <t>Проверка существования пользователя</t>
   </si>
   <si>
@@ -411,31 +388,10 @@
     <t>Получение категорию</t>
   </si>
   <si>
-    <t>{
-    "categoryId": 1,
-    "name": "Food",
-    "parentId": null,
-    "subCategories": [
-      {
-        "categoryId": 2,
-        "name": "Fruits",
-        "parentId": 1,
-        "subCategories": []
-      }
-    ]
-  }</t>
-  </si>
-  <si>
     <t xml:space="preserve">создать email </t>
   </si>
   <si>
     <t>надо добаить в webConfig юрл (больше нигде ничего менять не надо)</t>
-  </si>
-  <si>
-    <t>{
-  "name": "Category Name",
-  "parentCategoryId": 1
-}</t>
   </si>
   <si>
     <t>{ "message": "Registration successful. Check your email to confirm your account."}</t>
@@ -548,11 +504,115 @@
 }]}</t>
   </si>
   <si>
+    <t>[
+  {
+    "categoryId": 1,
+    "name": "Food",
+    "icon": null,
+    "parentId": null,
+    "subCategories": [
+      {
+        "categoryId": 2,
+        "name": "Fruits",
+        "icon": null,
+        "parentId": 1,
+        "subCategories": []
+      }
+    ]
+  }
+]</t>
+  </si>
+  <si>
+    <t>{
+    "categoryId": 1,
+    "name": "Food",
+    "icon": null,
+    "parentId": null,
+    "subCategories": [
+      {
+        "categoryId": 2,
+        "name": "Fruits",
+        "icon": null,
+        "parentId": 1,
+        "subCategories": []
+      }
+    ]
+  }</t>
+  </si>
+  <si>
+    <t>{
+  "name": "Category Name",
+  "icon": null,
+  "parentCategoryId": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "name": "New Category Name",
+   "icon": null,
+  "parentCategoryId": null
+}</t>
+  </si>
+  <si>
+    <t>{
+    "income": 301.50,
+    "expenses": 1809.50,
+    "balance": -1508.00,
+    "transactions": [
+        {
+            "id": 7,
+            "category": {
+                "id": 11,
+                "name": "Category",
+               "icon": null,
+            },
+            "account": {
+                "id": 1,
+                "name": "Cash"
+            },
+            "tag": {
+                "id": 6,
+                "name": "New Tag"
+            },
+            "userId": null,
+            "amount": 100.50,
+            "datetime": "2023-03-28T14:30:00",
+            "place": "Some Store",
+            "note": "Purchase details",
+            "type": "INCOME"
+}]}</t>
+  </si>
+  <si>
+    <t>[ {
+        "id": 9,
+        "category": {
+            "id": 11,
+            "name": "Category",
+            "icon": null,
+        },
+        "account": {
+            "id": 1,
+            "name": "Cash"
+        },
+        "tag": {
+            "id": 6,
+            "name": "New Tag"
+        },
+        "userId": null,
+        "amount": 100.50,
+        "datetime": "2024-03-28T14:30:00",
+        "place": "Some Store",
+        "note": "Purchase details",
+        "type": "INCOME"
+}]</t>
+  </si>
+  <si>
     <t>{
     "id": 7,
     "category": {
         "id": 11,
-        "name": "Category"
+        "name": "Category",
+        "icon": null,
     },
     "account": {
         "id": 1,
@@ -569,29 +629,6 @@
     "note": "Purchase details",
     "type": "INCOME"
 }</t>
-  </si>
-  <si>
-    <t>[ {
-        "id": 9,
-        "category": {
-            "id": 11,
-            "name": "Category"
-        },
-        "account": {
-            "id": 1,
-            "name": "Cash"
-        },
-        "tag": {
-            "id": 6,
-            "name": "New Tag"
-        },
-        "userId": null,
-        "amount": 100.50,
-        "datetime": "2024-03-28T14:30:00",
-        "place": "Some Store",
-        "note": "Purchase details",
-        "type": "INCOME"
-}]</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1147,13 @@
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1136,22 +1173,22 @@
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="15"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1168,7 +1205,7 @@
         <v>27</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1196,7 +1233,7 @@
         <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1221,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1249,10 +1286,10 @@
         <v>46</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1271,16 +1308,16 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1290,12 +1327,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1450,7 +1487,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
@@ -1484,7 +1521,7 @@
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
@@ -1552,15 +1589,15 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1582,11 +1619,11 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
@@ -1612,11 +1649,11 @@
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1660,7 +1697,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1686,19 +1723,19 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1720,19 +1757,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1788,19 +1825,19 @@
     </row>
     <row r="8" spans="1:7" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1822,19 +1859,19 @@
     </row>
     <row r="10" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1852,16 +1889,16 @@
       <c r="B12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="14"/>
@@ -1876,7 +1913,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1901,7 +1938,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1914,7 +1951,7 @@
   <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1934,13 +1971,13 @@
         <v>58</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1962,13 +1999,13 @@
         <v>59</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>59</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2013,18 +2050,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="224.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,16 +2080,16 @@
     </row>
     <row r="10" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2065,15 +2102,15 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2083,7 +2120,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2108,7 +2145,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2139,10 +2176,10 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>34</v>
@@ -2209,7 +2246,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
@@ -2221,18 +2258,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="289.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2257,18 +2294,18 @@
         <v>32</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>8</v>
@@ -2290,10 +2327,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2326,7 +2363,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -2370,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2387,7 +2424,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,10 +2437,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2430,12 +2467,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="343.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
+    <row r="8" spans="1:3" ht="356.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2456,10 +2493,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="register and login page" sheetId="1" r:id="rId1"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1950,7 +1950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2407,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/src/main/java/KirisShygys/forFront.xlsx
+++ b/src/main/java/KirisShygys/forFront.xlsx
@@ -459,21 +459,99 @@
   </si>
   <si>
     <t>{
-      "account": {
-    "id": 1
+  "category": {
+    "id": 57
   },
-  "category": {
-    "id": 13
+  "account": {
+    "id": 23
   },
   "tag": {
-    "id": 6
+    "id": 12
   },
-    "amount": 854.50,
-    "datetime": "2024-03-28T14:30:00",
-    "place": "Some Store",
-    "note": "Purchase details",
-    "type": "EXPENSE"
+  "amount": 10000,
+  "datetime": "2025-05-13T10:00:00",
+  "place": "Фитнес-зал",
+  "note": "Абонемент на месяц",
+  "type": "EXPENSE",
+  "repeatEnabled": true,
+  "repeatPeriod": "MONTHLY",
+  "repeatEndDate": "2025-12-13T00:00:00"
 }</t>
+  </si>
+  <si>
+    <t>{
+  "category": {
+    "id": 57
+  },
+  "account": {
+    "id": 23
+  },
+  "tag": {
+    "id": 12
+  },
+  "amount": 10000,
+  "datetime": "2025-05-13T10:00:00",
+  "place": "Invistus",
+  "note": "Абонемент на месяц",
+  "type": "EXPENSE",
+  "repeatEnabled": true,
+  "repeatPeriod": "MONTHLY",
+  "repeatEndDate": "2025-12-13T00:00:00"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "name": "Category Name",
+  "icon": null,
+  "type": "EXPENSE",
+  "parentCategoryId": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+  "name": "New Category Name",
+   "icon": null,
+  "type": "EXPENSE",
+  "parentCategoryId": null
+}</t>
+  </si>
+  <si>
+    <t>[
+  {
+    "categoryId": 1,
+    "name": "Food",
+    "icon": null,
+    "type": "EXPENSE",
+    "parentId": null,
+    "subCategories": [
+      {
+        "categoryId": 2,
+        "name": "Fruits",
+        "icon": null,
+        "parentId": 1,
+        "subCategories": []
+      }
+    ]
+  }
+]</t>
+  </si>
+  <si>
+    <t>{
+    "categoryId": 1,
+    "name": "Food",
+    "icon": null,
+    "type": "EXPENSE",
+    "parentId": null,
+    "subCategories": [
+      {
+        "categoryId": 2,
+        "name": "Fruits",
+        "icon": null,
+        "parentId": 1,
+        "subCategories": []
+      }
+    ]
+  }</t>
   </si>
   <si>
     <t>{
@@ -485,7 +563,9 @@
             "id": 7,
             "category": {
                 "id": 11,
-                "name": "Category"
+                "name": "Category",
+                "icon": null,
+                "type": "EXPENSE"
             },
             "account": {
                 "id": 1,
@@ -504,91 +584,13 @@
 }]}</t>
   </si>
   <si>
-    <t>[
-  {
-    "categoryId": 1,
-    "name": "Food",
-    "icon": null,
-    "parentId": null,
-    "subCategories": [
-      {
-        "categoryId": 2,
-        "name": "Fruits",
-        "icon": null,
-        "parentId": 1,
-        "subCategories": []
-      }
-    ]
-  }
-]</t>
-  </si>
-  <si>
-    <t>{
-    "categoryId": 1,
-    "name": "Food",
-    "icon": null,
-    "parentId": null,
-    "subCategories": [
-      {
-        "categoryId": 2,
-        "name": "Fruits",
-        "icon": null,
-        "parentId": 1,
-        "subCategories": []
-      }
-    ]
-  }</t>
-  </si>
-  <si>
-    <t>{
-  "name": "Category Name",
-  "icon": null,
-  "parentCategoryId": 1
-}</t>
-  </si>
-  <si>
-    <t>{
-  "name": "New Category Name",
-   "icon": null,
-  "parentCategoryId": null
-}</t>
-  </si>
-  <si>
-    <t>{
-    "income": 301.50,
-    "expenses": 1809.50,
-    "balance": -1508.00,
-    "transactions": [
-        {
-            "id": 7,
-            "category": {
-                "id": 11,
-                "name": "Category",
-               "icon": null,
-            },
-            "account": {
-                "id": 1,
-                "name": "Cash"
-            },
-            "tag": {
-                "id": 6,
-                "name": "New Tag"
-            },
-            "userId": null,
-            "amount": 100.50,
-            "datetime": "2023-03-28T14:30:00",
-            "place": "Some Store",
-            "note": "Purchase details",
-            "type": "INCOME"
-}]}</t>
-  </si>
-  <si>
     <t>[ {
         "id": 9,
         "category": {
             "id": 11,
             "name": "Category",
             "icon": null,
+            "type": "EXPENSE"
         },
         "account": {
             "id": 1,
@@ -613,6 +615,7 @@
         "id": 11,
         "name": "Category",
         "icon": null,
+        "type": "EXPENSE"
     },
     "account": {
         "id": 1,
@@ -1062,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -2050,18 +2053,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="224.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="237.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2261,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="317.39999999999998" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>120</v>
       </c>
@@ -2266,7 +2269,7 @@
         <v>121</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>113</v>
@@ -2408,7 +2411,7 @@
   <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2467,9 +2470,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="356.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="369.6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>119</v>
